--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/141.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/141.xlsx
@@ -479,13 +479,13 @@
         <v>-16.77694870400907</v>
       </c>
       <c r="E2" t="n">
-        <v>-5.906027988088265</v>
+        <v>-6.079367726554734</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.783602549009414</v>
+        <v>-3.720074793780721</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.681969510508853</v>
+        <v>-8.567833109759508</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-16.91233241038238</v>
       </c>
       <c r="E3" t="n">
-        <v>-6.571152927297709</v>
+        <v>-6.75704274639155</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.745903417058633</v>
+        <v>-3.741728205194288</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.572211306346613</v>
+        <v>-8.481434580407386</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-16.94171725646004</v>
       </c>
       <c r="E4" t="n">
-        <v>-7.08321283951778</v>
+        <v>-7.221855296249754</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.874787416084244</v>
+        <v>-3.831465926236511</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.177291998657824</v>
+        <v>-8.038886567821113</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-16.83524875422005</v>
       </c>
       <c r="E5" t="n">
-        <v>-7.63719109661478</v>
+        <v>-7.763092801451573</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.622172431270749</v>
+        <v>-3.568476468851422</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.772462674049799</v>
+        <v>-7.646749105039598</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-16.59138454241025</v>
       </c>
       <c r="E6" t="n">
-        <v>-8.42662881342927</v>
+        <v>-8.511389525480975</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.652665167099698</v>
+        <v>-3.562154982972501</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.342088288562143</v>
+        <v>-7.269640449366981</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-16.21315356155456</v>
       </c>
       <c r="E7" t="n">
-        <v>-9.188512087541827</v>
+        <v>-9.226455669835955</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.587093807000635</v>
+        <v>-3.475644006462441</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.912613480337999</v>
+        <v>-6.811237387511301</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-15.70658922837116</v>
       </c>
       <c r="E8" t="n">
-        <v>-9.817287260695759</v>
+        <v>-9.868304047352018</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.489680345177354</v>
+        <v>-3.358650072137166</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.360072591259873</v>
+        <v>-6.242909895259906</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-15.07061334812147</v>
       </c>
       <c r="E9" t="n">
-        <v>-10.48195752226658</v>
+        <v>-10.51545210831181</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.360938127350883</v>
+        <v>-3.237715598277159</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.853454143682678</v>
+        <v>-5.718700800975552</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-14.31670711645234</v>
       </c>
       <c r="E10" t="n">
-        <v>-10.79268813170709</v>
+        <v>-10.78186875951061</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.209672254888534</v>
+        <v>-3.061310452505133</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.692586261733709</v>
+        <v>-5.490951305087186</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-13.43972958888308</v>
       </c>
       <c r="E11" t="n">
-        <v>-11.52095459460275</v>
+        <v>-11.52836632901299</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.256948951291602</v>
+        <v>-3.119768307612835</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.096489210478237</v>
+        <v>-4.862953484025094</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-12.46296152770876</v>
       </c>
       <c r="E12" t="n">
-        <v>-12.15701438798838</v>
+        <v>-12.12994395696627</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.931961997827164</v>
+        <v>-2.763829051673959</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.507667001440734</v>
+        <v>-4.304223112253453</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-11.39133882782608</v>
       </c>
       <c r="E13" t="n">
-        <v>-13.06299625049639</v>
+        <v>-13.06145621333331</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.840503346367786</v>
+        <v>-2.58976085118432</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.75070695724316</v>
+        <v>-3.53989044570057</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-10.26469297880181</v>
       </c>
       <c r="E14" t="n">
-        <v>-13.58521551898591</v>
+        <v>-13.53998731646008</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.66243593826101</v>
+        <v>-2.451861523496117</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.26045201564953</v>
+        <v>-3.038850354958526</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-9.104360686316992</v>
       </c>
       <c r="E15" t="n">
-        <v>-14.43427467454243</v>
+        <v>-14.38314544072823</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.437507399334854</v>
+        <v>-2.252786052882207</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.574323902939819</v>
+        <v>-2.339658815900418</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-7.949835776155434</v>
       </c>
       <c r="E16" t="n">
-        <v>-15.01518158146239</v>
+        <v>-15.0173376334907</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.127075019313223</v>
+        <v>-1.916549494616998</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.375497771676122</v>
+        <v>-2.139185089322571</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-6.829179389646868</v>
       </c>
       <c r="E17" t="n">
-        <v>-16.10670125456982</v>
+        <v>-16.05209593687325</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.754390914855163</v>
+        <v>-1.540022630761543</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.9982620018249642</v>
+        <v>-1.767483675244761</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-5.773585167949923</v>
       </c>
       <c r="E18" t="n">
-        <v>-16.9305869137686</v>
+        <v>-16.77610407478782</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.549477970042157</v>
+        <v>-1.357222664007594</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.8495090788922099</v>
+        <v>-1.593009687185168</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-4.813220767439501</v>
       </c>
       <c r="E19" t="n">
-        <v>-17.77097786015008</v>
+        <v>-17.60005329107586</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.044262667435767</v>
+        <v>-0.8629196247281576</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.5720677172085205</v>
+        <v>-1.26157413366327</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.969528405245697</v>
       </c>
       <c r="E20" t="n">
-        <v>-18.52345468505069</v>
+        <v>-18.36657134369826</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.7441509809101928</v>
+        <v>-0.5645190906060038</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.7648901480396461</v>
+        <v>-1.446921272994882</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-3.268986058524851</v>
       </c>
       <c r="E21" t="n">
-        <v>-19.04219298065097</v>
+        <v>-18.78377474468644</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.3085453580749379</v>
+        <v>-0.1575141579422013</v>
       </c>
       <c r="G21" t="n">
-        <v>-1.106367721666188</v>
+        <v>-1.708937818013455</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-2.717524761663002</v>
       </c>
       <c r="E22" t="n">
-        <v>-19.67904479314904</v>
+        <v>-19.36620213274202</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1894439923821518</v>
+        <v>0.3211440593631067</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.24878449169942</v>
+        <v>-1.799188884776705</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-2.328593003589691</v>
       </c>
       <c r="E23" t="n">
-        <v>-20.10895961199121</v>
+        <v>-19.83244716161223</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4110137835907373</v>
+        <v>0.4959553888965176</v>
       </c>
       <c r="G23" t="n">
-        <v>-1.281110605103462</v>
+        <v>-1.797712404702897</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-2.087244138961302</v>
       </c>
       <c r="E24" t="n">
-        <v>-20.31474280002653</v>
+        <v>-20.05206623908092</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5314055776885179</v>
+        <v>0.5718963325603075</v>
       </c>
       <c r="G24" t="n">
-        <v>-1.800914704200726</v>
+        <v>-2.294391501319653</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-1.988576247197998</v>
       </c>
       <c r="E25" t="n">
-        <v>-20.86680945543856</v>
+        <v>-20.62354225175461</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8494110293470006</v>
+        <v>0.8639216017280043</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.177720241447595</v>
+        <v>-2.597241031690699</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-2.00376227076055</v>
       </c>
       <c r="E26" t="n">
-        <v>-20.92037830367935</v>
+        <v>-20.61893680728597</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9105138371697037</v>
+        <v>0.8992495653483317</v>
       </c>
       <c r="G26" t="n">
-        <v>-2.673895770357059</v>
+        <v>-3.014762218125236</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-2.113471659799417</v>
       </c>
       <c r="E27" t="n">
-        <v>-21.18899989697512</v>
+        <v>-20.86397872046262</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8476265418405767</v>
+        <v>0.8088860514271426</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.034220465455558</v>
+        <v>-3.337309557163083</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-2.286277834199293</v>
       </c>
       <c r="E28" t="n">
-        <v>-21.25846779554712</v>
+        <v>-20.98464918795181</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8758605564970106</v>
+        <v>0.8569889899907188</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.396681656554898</v>
+        <v>-3.70055298936113</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-2.499860235433517</v>
       </c>
       <c r="E29" t="n">
-        <v>-21.14463704866474</v>
+        <v>-20.85012327500178</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7446689462302148</v>
+        <v>0.7053124409515495</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.709064750316429</v>
+        <v>-3.979549055228498</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-2.731364599163453</v>
       </c>
       <c r="E30" t="n">
-        <v>-20.78869290371899</v>
+        <v>-20.50011438439247</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7588079540893329</v>
+        <v>0.7262520573625463</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.358451976421273</v>
+        <v>-4.568904166014494</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-2.965882407046976</v>
       </c>
       <c r="E31" t="n">
-        <v>-20.73581829445331</v>
+        <v>-20.44343612778433</v>
       </c>
       <c r="F31" t="n">
-        <v>0.7756603607595887</v>
+        <v>0.713046849815009</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.548394782207786</v>
+        <v>-4.714254340167876</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-3.192684094861819</v>
       </c>
       <c r="E32" t="n">
-        <v>-20.58841962642269</v>
+        <v>-20.2945023115975</v>
       </c>
       <c r="F32" t="n">
-        <v>0.5406262446395195</v>
+        <v>0.4888761069532248</v>
       </c>
       <c r="G32" t="n">
-        <v>-5.052774064639934</v>
+        <v>-5.169352433381521</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-3.404366219845274</v>
       </c>
       <c r="E33" t="n">
-        <v>-20.19599371223603</v>
+        <v>-19.89833141815078</v>
       </c>
       <c r="F33" t="n">
-        <v>0.4442394742582912</v>
+        <v>0.373035978248542</v>
       </c>
       <c r="G33" t="n">
-        <v>-5.137969898302794</v>
+        <v>-5.265538754481205</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-3.599225512810718</v>
       </c>
       <c r="E34" t="n">
-        <v>-19.90860811058503</v>
+        <v>-19.58683812363903</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3980872494346142</v>
+        <v>0.3095766691159859</v>
       </c>
       <c r="G34" t="n">
-        <v>-5.440975876893582</v>
+        <v>-5.548260243581163</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-3.773805109907488</v>
       </c>
       <c r="E35" t="n">
-        <v>-19.32321309536124</v>
+        <v>-19.04639752655651</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1792650800852349</v>
+        <v>0.1156297667054699</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.258464361544779</v>
+        <v>-5.370662180133611</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-3.931758897738427</v>
       </c>
       <c r="E36" t="n">
-        <v>-18.97883634066262</v>
+        <v>-18.6626838226067</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1114985559029268</v>
+        <v>0.07943155986283167</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.396681474679331</v>
+        <v>-5.496417214764397</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-4.07144763202252</v>
       </c>
       <c r="E37" t="n">
-        <v>-18.5066511684491</v>
+        <v>-18.24831115659445</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1471443049696037</v>
+        <v>0.137415181304443</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.981810129966664</v>
+        <v>-5.093988392528026</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-4.200221876053745</v>
       </c>
       <c r="E38" t="n">
-        <v>-18.0838791886395</v>
+        <v>-17.7851755360916</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.1185047721510869</v>
+        <v>-0.07917760091362308</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.796101204126899</v>
+        <v>-4.954676141855285</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-4.317445267324834</v>
       </c>
       <c r="E39" t="n">
-        <v>-17.55548510447707</v>
+        <v>-17.21973255789168</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.1186465533502274</v>
+        <v>-0.09942786735638479</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.816385693617729</v>
+        <v>-4.950461817936005</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-4.43055624472889</v>
       </c>
       <c r="E40" t="n">
-        <v>-17.05323742903889</v>
+        <v>-16.75670938454677</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.2365058418909461</v>
+        <v>-0.1609315737421748</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.610446057362671</v>
+        <v>-4.83216740778413</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-4.539688982345329</v>
       </c>
       <c r="E41" t="n">
-        <v>-16.31676232361369</v>
+        <v>-16.04612645948875</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.443506392636125</v>
+        <v>-0.3301254343855005</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.697157483154274</v>
+        <v>-4.948956003820995</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-4.648620346169213</v>
       </c>
       <c r="E42" t="n">
-        <v>-15.66626040394319</v>
+        <v>-15.4118560426164</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.5379131152362526</v>
+        <v>-0.4288980401177832</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.591325151506166</v>
+        <v>-4.966321756212277</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-4.757904194869615</v>
       </c>
       <c r="E43" t="n">
-        <v>-15.15680633238319</v>
+        <v>-14.93020086410168</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.6330678558870183</v>
+        <v>-0.5330583314174061</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.17283594171198</v>
+        <v>-4.588997984237515</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-4.867589276340654</v>
       </c>
       <c r="E44" t="n">
-        <v>-14.57161176644093</v>
+        <v>-14.33932527218007</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.6900003408522428</v>
+        <v>-0.5778660793526816</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.34906019422993</v>
+        <v>-4.753855295789887</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-4.980394472854661</v>
       </c>
       <c r="E45" t="n">
-        <v>-14.05756202842603</v>
+        <v>-13.81988784859783</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.8169922942203587</v>
+        <v>-0.717236998107826</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.441525981103892</v>
+        <v>-4.842253428950576</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-5.094022327953232</v>
       </c>
       <c r="E46" t="n">
-        <v>-13.10380967982139</v>
+        <v>-12.89520553482387</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.9712991289539282</v>
+        <v>-0.8825489872988211</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.285043538314546</v>
+        <v>-4.817632390368792</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-5.215391125720012</v>
       </c>
       <c r="E47" t="n">
-        <v>-12.71733857599864</v>
+        <v>-12.5419992337236</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.116839974375119</v>
+        <v>-1.00061361412795</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.453978281593924</v>
+        <v>-5.013916238061694</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-5.341174118118906</v>
       </c>
       <c r="E48" t="n">
-        <v>-11.95833981593756</v>
+        <v>-11.78200311626167</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.228597782345928</v>
+        <v>-1.124403267998237</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.406799365328196</v>
+        <v>-5.050197558021069</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-5.480438376708194</v>
       </c>
       <c r="E49" t="n">
-        <v>-11.57233805677402</v>
+        <v>-11.3729839127687</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.335349247285016</v>
+        <v>-1.225639933191444</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.38332235435327</v>
+        <v>-5.000999481919305</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-5.62971441261533</v>
       </c>
       <c r="E50" t="n">
-        <v>-10.99222805797336</v>
+        <v>-10.81082634718335</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.576616847160402</v>
+        <v>-1.469924050303717</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.600594708525837</v>
+        <v>-5.236913619275418</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-5.797902768859415</v>
       </c>
       <c r="E51" t="n">
-        <v>-10.58295462612331</v>
+        <v>-10.38278401797121</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.519288352638957</v>
+        <v>-1.432361810545209</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.777122079469535</v>
+        <v>-5.420104706578721</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-5.983130382840286</v>
       </c>
       <c r="E52" t="n">
-        <v>-10.06853821259338</v>
+        <v>-9.824659883051067</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.641445078215694</v>
+        <v>-1.548715284970918</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.779615472971662</v>
+        <v>-5.444183065398278</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-6.190592085491402</v>
       </c>
       <c r="E53" t="n">
-        <v>-9.498260006602091</v>
+        <v>-9.287724703892133</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.617029377922321</v>
+        <v>-1.500265226919791</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.921572676359404</v>
+        <v>-5.582634850862441</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-6.419895614688402</v>
       </c>
       <c r="E54" t="n">
-        <v>-8.997674593498671</v>
+        <v>-8.733829559911872</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.71192500120914</v>
+        <v>-1.592442562388605</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.878911202438704</v>
+        <v>-5.51852041480972</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-6.670356366545695</v>
       </c>
       <c r="E55" t="n">
-        <v>-8.241325675159461</v>
+        <v>-8.017653610998101</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.871912861922065</v>
+        <v>-1.760047495800184</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.047009925543841</v>
+        <v>-5.695453573323372</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-6.942528568032126</v>
       </c>
       <c r="E56" t="n">
-        <v>-7.880898310916756</v>
+        <v>-7.655339090104768</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.987264089940056</v>
+        <v>-1.848763414407222</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.072114975805449</v>
+        <v>-5.693488192562872</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-7.228884156993651</v>
       </c>
       <c r="E57" t="n">
-        <v>-7.523653690144414</v>
+        <v>-7.358850157667578</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.855696026144508</v>
+        <v>-1.748700110862074</v>
       </c>
       <c r="G57" t="n">
-        <v>-4.991436584487619</v>
+        <v>-5.570402555681421</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-7.531633527542674</v>
       </c>
       <c r="E58" t="n">
-        <v>-7.056235299626143</v>
+        <v>-6.796247692457341</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.901134455965615</v>
+        <v>-1.801560053107158</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.212277913673034</v>
+        <v>-5.808624304278719</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-7.838240123651389</v>
       </c>
       <c r="E59" t="n">
-        <v>-6.531043514961539</v>
+        <v>-6.35299566288223</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.111967988094456</v>
+        <v>-1.965786682773699</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.234811346322645</v>
+        <v>-5.767414865397492</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-8.151877359332209</v>
       </c>
       <c r="E60" t="n">
-        <v>-6.454745673796464</v>
+        <v>-6.243628579269343</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.139527319803255</v>
+        <v>-2.026791710459063</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.145513635898443</v>
+        <v>-5.627476821845786</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-8.457228236522962</v>
       </c>
       <c r="E61" t="n">
-        <v>-6.344112337405046</v>
+        <v>-6.106399045521907</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.203411972533233</v>
+        <v>-2.117502343867803</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.125742492128639</v>
+        <v>-5.615259193685366</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.754351534195727</v>
       </c>
       <c r="E62" t="n">
-        <v>-6.090744445534045</v>
+        <v>-5.863449627284303</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.204399551920349</v>
+        <v>-2.136867700067653</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.240125696786981</v>
+        <v>-5.747589942552152</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-9.02922134555287</v>
       </c>
       <c r="E63" t="n">
-        <v>-5.819165003083787</v>
+        <v>-5.548587807041246</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.349857284224803</v>
+        <v>-2.290265179523977</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.11322174554247</v>
+        <v>-5.563714394287481</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-9.277597793919997</v>
       </c>
       <c r="E64" t="n">
-        <v>-5.64626527523534</v>
+        <v>-5.397101929269886</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.54171169169628</v>
+        <v>-2.4528539918901</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.932103597150739</v>
+        <v>-5.368036783446077</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-9.490813365189847</v>
       </c>
       <c r="E65" t="n">
-        <v>-5.47783898867012</v>
+        <v>-5.21529443090992</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.362290028687368</v>
+        <v>-2.279250247052818</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.96915249118822</v>
+        <v>-5.437543794073007</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-9.662798639742684</v>
       </c>
       <c r="E66" t="n">
-        <v>-5.440873207749376</v>
+        <v>-5.228191631024842</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.46031950537588</v>
+        <v>-2.372180489579137</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.044853873515532</v>
+        <v>-5.475115811845249</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-9.792858552646829</v>
       </c>
       <c r="E67" t="n">
-        <v>-5.266042322188498</v>
+        <v>-5.024598718065903</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.595265872916466</v>
+        <v>-2.467833908930328</v>
       </c>
       <c r="G67" t="n">
-        <v>-4.969450720607102</v>
+        <v>-5.389147515097416</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-9.873813729158972</v>
       </c>
       <c r="E68" t="n">
-        <v>-5.37741389861682</v>
+        <v>-5.113026185267794</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.678036759173336</v>
+        <v>-2.530437641861174</v>
       </c>
       <c r="G68" t="n">
-        <v>-4.862655254606212</v>
+        <v>-5.268437935553286</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-9.912901022658424</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.453261951150139</v>
+        <v>-5.231232593296063</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.656896693480796</v>
+        <v>-2.536431564280011</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.640669897813939</v>
+        <v>-5.067475308288746</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-9.904035726358485</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.274901202631347</v>
+        <v>-5.029033047294194</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.650643653698011</v>
+        <v>-2.482344481311331</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.719583357652813</v>
+        <v>-5.080186726142726</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-9.858275539177969</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.726523211962616</v>
+        <v>-5.531974961707469</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.748770910523861</v>
+        <v>-2.582021553313993</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.527181381412242</v>
+        <v>-4.913549816090796</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-9.769495302300017</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.806331360058135</v>
+        <v>-5.58417488802552</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.732343847451027</v>
+        <v>-2.542674826049062</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.332501127971689</v>
+        <v>-4.659790803670443</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-9.645695666061448</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.007181540164735</v>
+        <v>-5.818949886781643</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.819822847320736</v>
+        <v>-2.659570980236998</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.31788788644648</v>
+        <v>-4.660783272064427</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-9.483013209998346</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.143785281033206</v>
+        <v>-5.9867943815297</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.711536234225437</v>
+        <v>-2.543975301875661</v>
       </c>
       <c r="G74" t="n">
-        <v>-3.87908974212713</v>
+        <v>-4.204697599463665</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-9.283819500908743</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.612699707652753</v>
+        <v>-6.440327992545932</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.943480498005616</v>
+        <v>-2.74343211502519</v>
       </c>
       <c r="G75" t="n">
-        <v>-3.687235334655653</v>
+        <v>-4.028180006533701</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-9.049400602775853</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.803209638235827</v>
+        <v>-6.628676982093831</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.988488695222435</v>
+        <v>-2.798702337655664</v>
       </c>
       <c r="G76" t="n">
-        <v>-3.344511064278048</v>
+        <v>-3.643654727443974</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-8.779915580669787</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.396407508419219</v>
+        <v>-7.206909602257595</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.000520541121913</v>
+        <v>-2.796961851211042</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.089075122502343</v>
+        <v>-3.296339679618336</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-8.484082637699929</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.041296848206501</v>
+        <v>-7.882321011915028</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.090566269596752</v>
+        <v>-2.879967409797524</v>
       </c>
       <c r="G78" t="n">
-        <v>-2.820248190918158</v>
+        <v>-2.998921835876432</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-8.159974642903999</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.803776581156823</v>
+        <v>-8.590786996999674</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.109476948157979</v>
+        <v>-2.864185695631122</v>
       </c>
       <c r="G79" t="n">
-        <v>-2.461815541477155</v>
+        <v>-2.592068462425503</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-7.819273864028752</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.394080159275001</v>
+        <v>-9.182752837452602</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.188473521113591</v>
+        <v>-2.944590302564406</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.149706232100172</v>
+        <v>-2.241365332841093</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-7.456335904565855</v>
       </c>
       <c r="E81" t="n">
-        <v>-10.14097862734046</v>
+        <v>-9.89958391328654</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.133345079682258</v>
+        <v>-2.906695610338948</v>
       </c>
       <c r="G81" t="n">
-        <v>-1.781300008650663</v>
+        <v>-1.894353403441204</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-7.080060924629035</v>
       </c>
       <c r="E82" t="n">
-        <v>-11.03063609591984</v>
+        <v>-10.79036585344531</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.280064175758376</v>
+        <v>-3.0481932470812</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.719361180653717</v>
+        <v>-1.816642639291591</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-6.685666811955201</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.90235090929765</v>
+        <v>-11.71573262818064</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.312786298718637</v>
+        <v>-3.045044726658907</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.480146963662436</v>
+        <v>-1.544804079477386</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-6.279524123838832</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.97974624156656</v>
+        <v>-12.74326497941389</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.333149012319338</v>
+        <v>-3.1092227198009</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.282631086239072</v>
+        <v>-1.281042159007325</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-5.862408593021793</v>
       </c>
       <c r="E85" t="n">
-        <v>-14.33771678892086</v>
+        <v>-14.09681097555362</v>
       </c>
       <c r="F85" t="n">
-        <v>-3.315181912083426</v>
+        <v>-3.063378502409838</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.137095129824748</v>
+        <v>-1.166815402568724</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-5.438925955538433</v>
       </c>
       <c r="E86" t="n">
-        <v>-15.55705954656378</v>
+        <v>-15.29597680185679</v>
       </c>
       <c r="F86" t="n">
-        <v>-3.229443398658338</v>
+        <v>-3.008851408823136</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.149498540246111</v>
+        <v>-1.211882267867946</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-5.01630790647654</v>
       </c>
       <c r="E87" t="n">
-        <v>-16.98979278692694</v>
+        <v>-16.74225748024817</v>
       </c>
       <c r="F87" t="n">
-        <v>-3.146604066305331</v>
+        <v>-2.928671696205731</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.9979931064472839</v>
+        <v>-1.02817294583675</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-4.599277958853023</v>
       </c>
       <c r="E88" t="n">
-        <v>-18.3719590292656</v>
+        <v>-18.12288368542375</v>
       </c>
       <c r="F88" t="n">
-        <v>-3.155311387535307</v>
+        <v>-2.944824974894018</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.317621708385582</v>
+        <v>-1.336488385885007</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-4.201289819590043</v>
       </c>
       <c r="E89" t="n">
-        <v>-19.88929653346072</v>
+        <v>-19.62861468731682</v>
       </c>
       <c r="F89" t="n">
-        <v>-3.101204748539159</v>
+        <v>-2.923455125878732</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.227600424945077</v>
+        <v>-1.174857818864799</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-3.82789493062377</v>
       </c>
       <c r="E90" t="n">
-        <v>-21.65665295982301</v>
+        <v>-21.41083369455452</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.846829721253574</v>
+        <v>-2.678613661983632</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.426206550899763</v>
+        <v>-1.386933158737836</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-3.495396964972554</v>
       </c>
       <c r="E91" t="n">
-        <v>-23.27846365175724</v>
+        <v>-22.98780730451227</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.812460002979162</v>
+        <v>-2.64904494845253</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.555002547801771</v>
+        <v>-1.53712833869633</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-3.205153038500808</v>
       </c>
       <c r="E92" t="n">
-        <v>-25.11096609462116</v>
+        <v>-24.85253319163604</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.609976894579013</v>
+        <v>-2.475993661391209</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.836179110731783</v>
+        <v>-1.834120838840812</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-2.968545126005214</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.00307286470308</v>
+        <v>-26.72199163740698</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.494381216217676</v>
+        <v>-2.391027611051094</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.276522181221079</v>
+        <v>-2.248522838894257</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-2.783467440054442</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.03956911908904</v>
+        <v>-28.73316039171888</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.672311732132179</v>
+        <v>-2.559512565698717</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.43927233081381</v>
+        <v>-2.429523651121182</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-2.653284932157051</v>
       </c>
       <c r="E95" t="n">
-        <v>-31.25190583895389</v>
+        <v>-30.91772510807622</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.542801940227601</v>
+        <v>-2.482676933778281</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.77912186515367</v>
+        <v>-2.76482640907481</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-2.577092346279223</v>
       </c>
       <c r="E96" t="n">
-        <v>-33.36499327491693</v>
+        <v>-33.04133124231343</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.673357979601698</v>
+        <v>-2.588998166113081</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.091001391207908</v>
+        <v>-3.065788782795227</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-2.54912846621255</v>
       </c>
       <c r="E97" t="n">
-        <v>-35.42363917491344</v>
+        <v>-35.13948031779461</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.765237085651631</v>
+        <v>-2.709873971890686</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.432136734353765</v>
+        <v>-3.392961122329176</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-2.575032128958175</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.57290037268479</v>
+        <v>-37.25488514301257</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.907815192911472</v>
+        <v>-2.849596899140248</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.70048943227186</v>
+        <v>-3.650954014696278</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-2.63816801726685</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.9124808297714</v>
+        <v>-39.62415409429853</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.830588440441683</v>
+        <v>-2.826339893474334</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.89590303674245</v>
+        <v>-3.90154495066687</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-2.758075301731383</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.16727857427541</v>
+        <v>-41.83473321619472</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.845309240117964</v>
+        <v>-2.893866856320163</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.278756275483693</v>
+        <v>-4.32990017631849</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-2.896904125874748</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.18916647614302</v>
+        <v>-43.85099876016538</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.853346767407172</v>
+        <v>-2.936508774213396</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.585135668812652</v>
+        <v>-4.656314719788067</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-3.110921478688602</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.66876320089121</v>
+        <v>-46.30799360616782</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.987383779670512</v>
+        <v>-3.137593626649607</v>
       </c>
       <c r="G102" t="n">
-        <v>-4.759594989851645</v>
+        <v>-4.834240346695703</v>
       </c>
     </row>
   </sheetData>
